--- a/data/common_keywords_locators/SAF_Common_Keywords_Locators_v1.0.xlsx
+++ b/data/common_keywords_locators/SAF_Common_Keywords_Locators_v1.0.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="175_SAF_Common_Keywords" sheetId="7" r:id="rId1"/>
+    <sheet name="Common_Keywords" sheetId="7" r:id="rId1"/>
     <sheet name="Keywords" sheetId="9" r:id="rId2"/>
-    <sheet name="530_SAF_Common_Locators" sheetId="8" r:id="rId3"/>
+    <sheet name="Common_Locators" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'175_SAF_Common_Keywords'!$A$1:$D$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'530_SAF_Common_Locators'!$A$1:$D$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Common_Keywords!$A$1:$D$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Common_Locators!$A$1:$D$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7391,7 +7391,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7478,13 +7478,6 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -7631,7 +7624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7832,12 +7825,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8014,28 +8001,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8044,118 +8034,115 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8693,7 +8680,7 @@
   <sheetPr/>
   <dimension ref="A1:E386"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
@@ -8708,7 +8695,7 @@
     <col min="5" max="16384" width="8.85185185185185" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" spans="1:5">
+    <row r="1" ht="21" spans="1:5">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -12774,10 +12761,10 @@
   <sheetPr/>
   <dimension ref="A1:D611"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5740740740741" defaultRowHeight="15.6" outlineLevelCol="3"/>
